--- a/Jello/Data/Imports/Projects to Import.xlsx
+++ b/Jello/Data/Imports/Projects to Import.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Description of Export title 1</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Software</t>
   </si>
   <si>
     <t>Export title 2</t>
@@ -37,7 +37,7 @@
     <t>Description of Export title 2</t>
   </si>
   <si>
-    <t>New</t>
+    <t>Business</t>
   </si>
   <si>
     <t>Export title 3</t>
@@ -46,7 +46,7 @@
     <t>Description of Export title 3</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Service</t>
   </si>
   <si>
     <t>Export title 4</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Description of Export title 5</t>
-  </si>
-  <si>
-    <t>In Review</t>
   </si>
   <si>
     <t>Export title 6</t>
@@ -84,7 +81,9 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -115,10 +114,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -360,7 +359,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -404,19 +403,19 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
